--- a/VersionRecords/Version3.1.2/版本Bug和特性计划及评审表v3.1.2_捷豹组.xlsx
+++ b/VersionRecords/Version3.1.2/版本Bug和特性计划及评审表v3.1.2_捷豹组.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="63">
   <si>
     <t>No</t>
   </si>
@@ -297,6 +297,16 @@
     <t>在测</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>移动组</t>
+    <rPh sb="0" eb="1">
+      <t>yi dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -777,7 +787,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -882,6 +892,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="87">
@@ -1318,7 +1331,7 @@
   <dimension ref="A1:T218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2017,7 +2030,7 @@
       <c r="A14" s="21">
         <v>13</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="35" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -2046,7 +2059,7 @@
         <v>46</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="M14" s="14" t="s">
         <v>32</v>
@@ -2069,7 +2082,7 @@
       <c r="A15" s="21">
         <v>14</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="35" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -2121,7 +2134,7 @@
       <c r="A16" s="21">
         <v>15</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="35" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="12" t="s">
